--- a/Quick Ship Router/bin/Debug/traveler.xlsx
+++ b/Quick Ship Router/bin/Debug/traveler.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Part</t>
   </si>
@@ -97,13 +97,19 @@
   </si>
   <si>
     <t>Box</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Components</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,20 +119,6 @@
     </font>
     <font>
       <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,18 +146,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Bell MT"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -286,17 +285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -391,115 +379,153 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,28 +545,28 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>280322</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>117914</xdr:rowOff>
+      <xdr:colOff>1399191</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>879257</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>267648</xdr:rowOff>
+      <xdr:colOff>1694794</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -553,129 +579,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1994822" y="117914"/>
-          <a:ext cx="598935" cy="149734"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>202480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121339</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="565677" cy="141419"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1916980" y="5527598"/>
-          <a:ext cx="565677" cy="141419"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2615230</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>113058</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="598801" cy="149700"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4329730" y="5519317"/>
-          <a:ext cx="598801" cy="149700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1392622</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>295602</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1688225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>6568</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3107122" y="2397671"/>
+          <a:off x="3113691" y="2397671"/>
           <a:ext cx="295603" cy="302173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -706,7 +610,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -750,7 +654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -794,7 +698,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -838,7 +742,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -864,25 +768,69 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2529206</xdr:colOff>
+      <xdr:colOff>43838</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>117914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>642773</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>267648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1758338" y="117914"/>
+          <a:ext cx="598935" cy="149734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2765690</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>119228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3128141</xdr:colOff>
+      <xdr:colOff>3364625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>268962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="17" name="Picture 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -895,7 +843,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4243706" y="119228"/>
+          <a:off x="4480190" y="119228"/>
           <a:ext cx="598935" cy="149734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -905,6 +853,84 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1667358</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141046</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565677" cy="141419"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1667358" y="6103696"/>
+          <a:ext cx="565677" cy="141419"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2858283</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139334</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="598801" cy="149700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4572783" y="6101984"/>
+          <a:ext cx="598801" cy="149700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -912,10 +938,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>222187</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121339</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1667358</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141046</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="565677" cy="141419"/>
     <xdr:pic>
@@ -939,7 +965,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1936687" y="5527598"/>
+          <a:off x="1667358" y="6099098"/>
           <a:ext cx="565677" cy="141419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -952,9 +978,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2595523</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>113058</xdr:rowOff>
+      <xdr:colOff>2858283</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139334</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="598801" cy="149700"/>
     <xdr:pic>
@@ -978,7 +1004,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4310023" y="5519317"/>
+          <a:off x="4572783" y="6097386"/>
           <a:ext cx="598801" cy="149700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -992,13 +1018,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1780191</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1952298</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>283779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1036,13 +1062,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1781504</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>112987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1953611</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>285094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1123,13 +1149,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>346012</xdr:colOff>
+      <xdr:colOff>43838</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>117914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>944947</xdr:colOff>
+      <xdr:colOff>642773</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>267648</xdr:rowOff>
     </xdr:to>
@@ -1154,7 +1180,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2060512" y="117914"/>
+          <a:off x="1758338" y="117914"/>
           <a:ext cx="598935" cy="149734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1167,13 +1193,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2463516</xdr:colOff>
+      <xdr:colOff>2765690</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>119228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3062451</xdr:colOff>
+      <xdr:colOff>3364625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>268962</xdr:rowOff>
     </xdr:to>
@@ -1198,7 +1224,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4178016" y="119228"/>
+          <a:off x="4480190" y="119228"/>
           <a:ext cx="598935" cy="149734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1212,13 +1238,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1533196</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>107731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1705303</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>279838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1518,341 +1544,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" s="26" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" s="26" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="41" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="36"/>
-      <c r="B19" s="35" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="32"/>
+      <c r="B21" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="33" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="30" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="43"/>
-    </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="37"/>
+    </row>
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" s="26" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="33" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
-    </row>
+      <c r="B29" s="33"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1861,192 +1836,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
+      <c r="B1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-    </row>
-    <row r="3" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="33"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+    </row>
+    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+    </row>
+    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+    </row>
+    <row r="20" spans="1:3" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="38"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-    </row>
-    <row r="18" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-    </row>
-    <row r="19" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="33" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="43"/>
-    </row>
-    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="37"/>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="33" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="16"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A18:C18"/>
+  <mergeCells count="2">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Quick Ship Router/bin/Debug/traveler.xlsx
+++ b/Quick Ship Router/bin/Debug/traveler.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -517,13 +514,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1546,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +1559,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="35" t="s">
@@ -1752,15 +1752,15 @@
     </row>
     <row r="19" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="21" spans="1:7" s="23" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="32"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -1838,20 +1838,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="50" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="49" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="35" t="s">
@@ -1859,129 +1859,129 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -1989,35 +1989,35 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="5"/>
@@ -2031,7 +2031,7 @@
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="33"/>

--- a/Quick Ship Router/bin/Debug/traveler.xlsx
+++ b/Quick Ship Router/bin/Debug/traveler.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Part</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Components</t>
+  </si>
+  <si>
+    <t>Pallet</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -375,11 +378,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -525,6 +543,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,18 +1758,23 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -1838,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Quick Ship Router/bin/Debug/traveler.xlsx
+++ b/Quick Ship Router/bin/Debug/traveler.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Chair" sheetId="2" r:id="rId2"/>
+    <sheet name="Panel" sheetId="4" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId2"/>
+    <sheet name="Chair" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Part</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Leftover</t>
   </si>
   <si>
-    <t>Pantry:       Inventory:</t>
-  </si>
-  <si>
     <t>Heian/Weeke</t>
   </si>
   <si>
@@ -106,6 +104,33 @@
   </si>
   <si>
     <t>Pallet</t>
+  </si>
+  <si>
+    <t>Send to Inventory</t>
+  </si>
+  <si>
+    <t>Desk Model</t>
+  </si>
+  <si>
+    <t>Box Width</t>
+  </si>
+  <si>
+    <t>Score A</t>
+  </si>
+  <si>
+    <t>Score B</t>
+  </si>
+  <si>
+    <t>Score C</t>
+  </si>
+  <si>
+    <t>Score D</t>
+  </si>
+  <si>
+    <t>Score E</t>
+  </si>
+  <si>
+    <t>Panel</t>
   </si>
 </sst>
 </file>
@@ -178,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -393,11 +418,24 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -538,18 +576,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,28 +633,23 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1399191</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>295602</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1667358</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>141046</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1694794</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>6568</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="565677" cy="141419"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -603,9 +661,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3113691" y="2397671"/>
-          <a:ext cx="295603" cy="302173"/>
+        <a:xfrm flipV="1">
+          <a:off x="1667358" y="6103696"/>
+          <a:ext cx="565677" cy="141419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,7 +671,51 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2858283</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139334</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="598801" cy="149700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4572783" y="6101984"/>
+          <a:ext cx="598801" cy="149700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -635,7 +737,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -679,7 +781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -723,7 +825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -738,50 +840,6 @@
         <a:xfrm>
           <a:off x="1533196" y="3983421"/>
           <a:ext cx="172107" cy="172107"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2720867</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3016470</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7882</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4435367" y="2398985"/>
-          <a:ext cx="295603" cy="302173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -811,7 +869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -855,7 +913,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -894,7 +952,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -933,7 +991,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -959,7 +1017,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1571,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,9 +1641,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36"/>
-      <c r="B1" s="53" t="s">
-        <v>21</v>
+      <c r="A1" s="32"/>
+      <c r="B1" s="52" t="s">
+        <v>10</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>13</v>
@@ -1595,264 +1653,198 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+    <row r="2" spans="1:7" s="21" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
+      <c r="A3" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="11"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="9"/>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="A9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>18</v>
+      <c r="A12" s="31" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-    </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="37"/>
-    </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="9"/>
-    </row>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+    </row>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
@@ -1866,9 +1858,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="36"/>
+      <c r="B1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="32"/>
+      <c r="B21" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="37"/>
+    </row>
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1882,7 +2171,7 @@
     <row r="1" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36"/>
       <c r="B1" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>13</v>
@@ -1925,24 +2214,24 @@
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
+      <c r="A9" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
@@ -1998,11 +2287,11 @@
       <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" s="23" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
     </row>
     <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
@@ -2034,7 +2323,7 @@
     </row>
     <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="34"/>
